--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.998410333333333</v>
+        <v>2.240772333333334</v>
       </c>
       <c r="N2">
-        <v>5.995231</v>
+        <v>6.722317</v>
       </c>
       <c r="O2">
-        <v>0.9576728121493726</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9576728121493727</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>105.1486731813626</v>
+        <v>102.5426074369931</v>
       </c>
       <c r="R2">
-        <v>946.3380586322631</v>
+        <v>922.8834669329381</v>
       </c>
       <c r="S2">
-        <v>0.7346806602421503</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="T2">
-        <v>0.7346806602421504</v>
+        <v>0.6763939203605135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>28.187806</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08342733333333334</v>
+        <v>2.240772333333334</v>
       </c>
       <c r="N3">
-        <v>0.250282</v>
+        <v>6.722317</v>
       </c>
       <c r="O3">
-        <v>0.03997982175672118</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.03997982175672118</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>4.389625724376223</v>
+        <v>21.05415194072244</v>
       </c>
       <c r="R3">
-        <v>39.506631519386</v>
+        <v>189.487367466502</v>
       </c>
       <c r="S3">
-        <v>0.0306706021847575</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="T3">
-        <v>0.0306706021847575</v>
+        <v>0.1388778842960613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>36.892526</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004898333333333334</v>
+        <v>2.240772333333334</v>
       </c>
       <c r="N4">
-        <v>0.014695</v>
+        <v>6.722317</v>
       </c>
       <c r="O4">
-        <v>0.002347366093906145</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.002347366093906145</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2577314789705556</v>
+        <v>27.55591718919356</v>
       </c>
       <c r="R4">
-        <v>2.319583310735</v>
+        <v>248.003254702742</v>
       </c>
       <c r="S4">
-        <v>0.00180078670901228</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="T4">
-        <v>0.00180078670901228</v>
+        <v>0.1817649787009828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,542 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.395935333333332</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H5">
-        <v>28.187806</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I5">
-        <v>0.1369942497546098</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J5">
-        <v>0.1369942497546098</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.998410333333333</v>
+        <v>2.240772333333334</v>
       </c>
       <c r="N5">
-        <v>5.995231</v>
+        <v>6.722317</v>
       </c>
       <c r="O5">
-        <v>0.9576728121493726</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9576728121493727</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>18.77693426146511</v>
+        <v>0.4492292904625556</v>
       </c>
       <c r="R5">
-        <v>168.992408353186</v>
+        <v>4.043063614163</v>
       </c>
       <c r="S5">
-        <v>0.1311956684107907</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="T5">
-        <v>0.1311956684107907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>9.395935333333332</v>
-      </c>
-      <c r="H6">
-        <v>28.187806</v>
-      </c>
-      <c r="I6">
-        <v>0.1369942497546098</v>
-      </c>
-      <c r="J6">
-        <v>0.1369942497546098</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.08342733333333334</v>
-      </c>
-      <c r="N6">
-        <v>0.250282</v>
-      </c>
-      <c r="O6">
-        <v>0.03997982175672118</v>
-      </c>
-      <c r="P6">
-        <v>0.03997982175672118</v>
-      </c>
-      <c r="Q6">
-        <v>0.7838778290324444</v>
-      </c>
-      <c r="R6">
-        <v>7.054900461292</v>
-      </c>
-      <c r="S6">
-        <v>0.005477005686885045</v>
-      </c>
-      <c r="T6">
-        <v>0.005477005686885044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9.395935333333332</v>
-      </c>
-      <c r="H7">
-        <v>28.187806</v>
-      </c>
-      <c r="I7">
-        <v>0.1369942497546098</v>
-      </c>
-      <c r="J7">
-        <v>0.1369942497546098</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.004898333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.014695</v>
-      </c>
-      <c r="O7">
-        <v>0.002347366093906145</v>
-      </c>
-      <c r="P7">
-        <v>0.002347366093906145</v>
-      </c>
-      <c r="Q7">
-        <v>0.04602442324111111</v>
-      </c>
-      <c r="R7">
-        <v>0.41421980917</v>
-      </c>
-      <c r="S7">
-        <v>0.0003215756569340813</v>
-      </c>
-      <c r="T7">
-        <v>0.0003215756569340812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6.492645</v>
-      </c>
-      <c r="H8">
-        <v>19.477935</v>
-      </c>
-      <c r="I8">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="J8">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>1.998410333333333</v>
-      </c>
-      <c r="N8">
-        <v>5.995231</v>
-      </c>
-      <c r="O8">
-        <v>0.9576728121493726</v>
-      </c>
-      <c r="P8">
-        <v>0.9576728121493727</v>
-      </c>
-      <c r="Q8">
-        <v>12.974968858665</v>
-      </c>
-      <c r="R8">
-        <v>116.774719727985</v>
-      </c>
-      <c r="S8">
-        <v>0.09065695647213318</v>
-      </c>
-      <c r="T8">
-        <v>0.09065695647213319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.492645</v>
-      </c>
-      <c r="H9">
-        <v>19.477935</v>
-      </c>
-      <c r="I9">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="J9">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08342733333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.250282</v>
-      </c>
-      <c r="O9">
-        <v>0.03997982175672118</v>
-      </c>
-      <c r="P9">
-        <v>0.03997982175672118</v>
-      </c>
-      <c r="Q9">
-        <v>0.5416640586300001</v>
-      </c>
-      <c r="R9">
-        <v>4.87497652767</v>
-      </c>
-      <c r="S9">
-        <v>0.003784642223086723</v>
-      </c>
-      <c r="T9">
-        <v>0.003784642223086722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.492645</v>
-      </c>
-      <c r="H10">
-        <v>19.477935</v>
-      </c>
-      <c r="I10">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="J10">
-        <v>0.09466380931151776</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.004898333333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.014695</v>
-      </c>
-      <c r="O10">
-        <v>0.002347366093906145</v>
-      </c>
-      <c r="P10">
-        <v>0.002347366093906145</v>
-      </c>
-      <c r="Q10">
-        <v>0.031803139425</v>
-      </c>
-      <c r="R10">
-        <v>0.286228254825</v>
-      </c>
-      <c r="S10">
-        <v>0.0002222106162978536</v>
-      </c>
-      <c r="T10">
-        <v>0.0002222106162978536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.244831</v>
-      </c>
-      <c r="I11">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J11">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>1.998410333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.995231</v>
-      </c>
-      <c r="O11">
-        <v>0.9576728121493726</v>
-      </c>
-      <c r="P11">
-        <v>0.9576728121493727</v>
-      </c>
-      <c r="Q11">
-        <v>0.1630909334401111</v>
-      </c>
-      <c r="R11">
-        <v>1.467818400961</v>
-      </c>
-      <c r="S11">
-        <v>0.00113952702429846</v>
-      </c>
-      <c r="T11">
-        <v>0.00113952702429846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.244831</v>
-      </c>
-      <c r="I12">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J12">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.08342733333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.250282</v>
-      </c>
-      <c r="O12">
-        <v>0.03997982175672118</v>
-      </c>
-      <c r="P12">
-        <v>0.03997982175672118</v>
-      </c>
-      <c r="Q12">
-        <v>0.006808532482444445</v>
-      </c>
-      <c r="R12">
-        <v>0.06127679234199999</v>
-      </c>
-      <c r="S12">
-        <v>4.757166199191779E-05</v>
-      </c>
-      <c r="T12">
-        <v>4.757166199191778E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.08161033333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.244831</v>
-      </c>
-      <c r="I13">
-        <v>0.001189891797952309</v>
-      </c>
-      <c r="J13">
-        <v>0.001189891797952308</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.004898333333333334</v>
-      </c>
-      <c r="N13">
-        <v>0.014695</v>
-      </c>
-      <c r="O13">
-        <v>0.002347366093906145</v>
-      </c>
-      <c r="P13">
-        <v>0.002347366093906145</v>
-      </c>
-      <c r="Q13">
-        <v>0.0003997546161111111</v>
-      </c>
-      <c r="R13">
-        <v>0.003597791544999999</v>
-      </c>
-      <c r="S13">
-        <v>2.793111661930271E-06</v>
-      </c>
-      <c r="T13">
-        <v>2.793111661930269E-06</v>
+        <v>0.002963216642442439</v>
       </c>
     </row>
   </sheetData>
